--- a/biology/Biochimie/Calséquestrine/Calséquestrine.xlsx
+++ b/biology/Biochimie/Calséquestrine/Calséquestrine.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Cals%C3%A9questrine</t>
+          <t>Calséquestrine</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,13 +490,15 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 La calséquestrine est une protéine à main EF qui stocke le calcium. Le complexe peut fixer jusqu'à 50 ions Ca2+. La protéine est localisée dans le réticulum endoplasmique des cellules, en particulier dans le réticulum sarcoplasmique des cellules musculaires et du myocarde.
 Sa capacité à complexer les ions Ca2+ permet d'augmenter considérablement la concentration calcique dans le réticulum sarcoplasmique. Cette concentration élevée est normalement cytotoxique.
-Elle temporise les échanges de calcium avec le cytosol[3].
-Une maladie rare, la « myopathie due à une surcharge en calséquestrine et SERCA1 »[4], a été exceptionnellement décrite. Ce syndrome réalise une myopathie qui serait due à un excès de calséquestrine et de SERCA1.
+Elle temporise les échanges de calcium avec le cytosol.
+Une maladie rare, la « myopathie due à une surcharge en calséquestrine et SERCA1 », a été exceptionnellement décrite. Ce syndrome réalise une myopathie qui serait due à un excès de calséquestrine et de SERCA1.
 </t>
         </is>
       </c>
